--- a/pred_ohlcv/54_21/2020-01-15 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ADA ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>77194.87244607002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>65827.11564607001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>140081.36594607</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>230517.77548794</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>181914.06668794</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>181455.29428794</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-775605.8695613901</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-765605.8695613901</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-768005.8695613901</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-761417.3695613901</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-803884.5530613902</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-838134.5667613902</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-838512.9032613902</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-839074.6045613901</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-827120.4331613901</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-521022.4719613901</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-644012.5732613901</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-644337.1233613901</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-811953.5375613901</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-990779.4838613902</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-999044.4230613902</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-64714342.35823585</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-64690386.72519361</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-64688026.00753545</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-64894938.37073544</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-64866273.03723545</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-64866136.24783545</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-65129423.23673545</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-65280759.67113545</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-65248725.59220708</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-65218877.27308118</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-65225752.00278118</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-65209314.67888118</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-65277501.90911862</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-65677629.25617394</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-65594573.19517394</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-65594573.19517394</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-65696812.74067394</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-65760536.05337395</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-65628936.97270633</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-65626990.78480633</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-65659338.00050633</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-65659338.00050633</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-66006802.45630633</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-65926288.46206633</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-65926720.59506633</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-65962268.50466633</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-65962268.50466633</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-65900484.98824014</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-65952733.01974013</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-65928468.49604014</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-65928468.49604014</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-65917507.92804013</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-66016789.65084013</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-66090436.45014013</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-66119205.18204013</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-66044946.68584013</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-66045728.02914013</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-66042919.49964013</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ADA ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>77194.87244607002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>65827.11564607001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>140081.36594607</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>230517.77548794</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>181914.06668794</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>181455.29428794</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-775605.8695613901</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-765605.8695613901</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-768005.8695613901</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-761417.3695613901</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-803884.5530613902</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-838134.5667613902</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-838512.9032613902</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-839074.6045613901</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-827120.4331613901</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-521022.4719613901</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-644012.5732613901</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-644337.1233613901</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-811953.5375613901</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-990779.4838613902</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-998466.7321613901</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-998466.7321613901</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-998406.7321613901</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-987406.7321613901</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-999696.4230613902</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-999696.4230613902</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-999044.4230613902</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1001850.42306139</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-988686.2355613902</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-988686.2355613902</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-980766.2216613902</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-63406717.27136139</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-63412819.40906139</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-64714342.35823585</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-64690386.72519361</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-64688026.00753545</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-64894938.37073544</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-64866273.03723545</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-64866136.24783545</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-65129423.23673545</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-65280759.67113545</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-65248725.59220708</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-65258046.34748118</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-65218877.27308118</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-65218935.27308118</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-65277501.90911862</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-65194425.45755607</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-65189425.45755607</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-65195336.30080203</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-65357017.95971502</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-65458108.5023913</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-65456255.8957913</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-65454142.0205913</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-65453682.63129129</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-65409551.61099129</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-65537381.7766913</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-65487505.4703913</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-65487455.5980913</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-65511806.1781913</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-65510846.1781913</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-65515846.1781913</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-65541548.16569129</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-65640897.46429129</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-65687374.23697393</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-65689845.56457393</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-65473973.11557394</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-65472776.24827394</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-65481594.73277394</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-65474303.23527394</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-65468441.47997394</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-65471791.44567394</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-65470996.38637394</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-65469576.60767394</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-65469576.60767394</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-65492620.83047394</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-65493859.95477395</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-65492811.21827395</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-65519910.41707394</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-65547069.19557394</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-65362424.02687394</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-65677629.25617394</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-65677629.25617394</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-65602802.25417394</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-65594573.19517394</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-65594573.19517394</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-65696812.74067394</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-65760536.05337395</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-65957685.19087395</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-65957685.19087395</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-65916458.99427395</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-65914284.05007395</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-65930610.46127395</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-65940084.06127395</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-65939564.06127395</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-65951614.06127395</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-65913861.72207395</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-65917024.31517395</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-65931018.64067396</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-65928970.95687396</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-65928970.95687396</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-65929529.25377396</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-65931251.10197396</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-65915965.01467396</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-65915421.78107396</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-65884867.51717395</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-65864867.51717395</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-65834594.16027395</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-65834395.41367395</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-65838174.18387395</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-65828573.52587395</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-65773241.77147395</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-65627222.24147395</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-65633069.92717395</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-65628936.97270633</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-65626990.78480633</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-65659338.00050633</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-65659338.00050633</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-66006802.45630633</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-65926288.46206633</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-65926720.59506633</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-65962268.50466633</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-65962268.50466633</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-65900484.98824014</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-65952733.01974013</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-65928468.49604014</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-65928468.49604014</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-65917507.92804013</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-66016789.65084013</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-66090436.45014013</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-66119205.18204013</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-66044946.68584013</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-66045728.02914013</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-66042919.49964013</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
